--- a/data-raw/mark_gard_data/IFIMWUA.xlsx
+++ b/data-raw/mark_gard_data/IFIMWUA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="American" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,9 +23,10 @@
     <sheet name="SouthCow" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Stanislaus" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Sutter" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Yolo" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Yuba" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="pools" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Tuolumne" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Yolo" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="Yuba" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="pools" sheetId="19" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="175">
   <si>
     <t xml:space="preserve">Fall-run</t>
   </si>
@@ -429,6 +430,26 @@
     <t xml:space="preserve">55.6 km</t>
   </si>
   <si>
+    <t xml:space="preserve">WUA in square feet per 1000 feet, stillwater 2010 PHABSIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulated
+Discharge
+(cfs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinook
+Juvenile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinook
+Fry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinook
+Spawning</t>
+  </si>
+  <si>
     <t xml:space="preserve">Englebright to Daguerre Segment</t>
   </si>
   <si>
@@ -565,7 +586,7 @@
     <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="173" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -627,6 +648,18 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -734,7 +767,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -757,15 +790,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -777,7 +810,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -857,7 +890,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1074,11 +1107,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="83768082"/>
-        <c:axId val="82388297"/>
+        <c:axId val="82368434"/>
+        <c:axId val="42784096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83768082"/>
+        <c:axId val="82368434"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,12 +1147,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82388297"/>
+        <c:crossAx val="42784096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82388297"/>
+        <c:axId val="42784096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1188,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83768082"/>
+        <c:crossAx val="82368434"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1182,7 +1215,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1733,11 +1766,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="3027657"/>
-        <c:axId val="57011751"/>
+        <c:axId val="9996924"/>
+        <c:axId val="94083430"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3027657"/>
+        <c:axId val="9996924"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1773,12 +1806,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57011751"/>
+        <c:crossAx val="94083430"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57011751"/>
+        <c:axId val="94083430"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,7 +1847,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3027657"/>
+        <c:crossAx val="9996924"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1851,7 +1884,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2194,11 +2227,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="95655064"/>
-        <c:axId val="31004928"/>
+        <c:axId val="94446257"/>
+        <c:axId val="2964910"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95655064"/>
+        <c:axId val="94446257"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,12 +2267,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31004928"/>
+        <c:crossAx val="2964910"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31004928"/>
+        <c:axId val="2964910"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2275,7 +2308,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95655064"/>
+        <c:crossAx val="94446257"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2302,7 +2335,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2645,11 +2678,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="11276496"/>
-        <c:axId val="85462791"/>
+        <c:axId val="40044940"/>
+        <c:axId val="70727327"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11276496"/>
+        <c:axId val="40044940"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2685,12 +2718,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85462791"/>
+        <c:crossAx val="70727327"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85462791"/>
+        <c:axId val="70727327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2726,7 +2759,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11276496"/>
+        <c:crossAx val="40044940"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2764,9 +2797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>323640</xdr:colOff>
+      <xdr:colOff>323280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2775,7 +2808,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2305080" y="252360"/>
-        <a:ext cx="5638320" cy="2742840"/>
+        <a:ext cx="5637960" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2799,9 +2832,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>523440</xdr:colOff>
+      <xdr:colOff>523080</xdr:colOff>
       <xdr:row>255</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2809,8 +2842,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6279480" y="45943920"/>
-        <a:ext cx="6076440" cy="2743200"/>
+        <a:off x="6296040" y="45943920"/>
+        <a:ext cx="6085440" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2834,9 +2867,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2844,8 +2877,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2676240" y="380880"/>
-        <a:ext cx="5638680" cy="2742840"/>
+        <a:off x="2685960" y="380880"/>
+        <a:ext cx="5637960" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2869,9 +2902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2879,8 +2912,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2590560" y="190440"/>
-        <a:ext cx="5638680" cy="2742840"/>
+        <a:off x="2600280" y="190440"/>
+        <a:ext cx="5637960" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4188,7 +4221,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
@@ -7581,7 +7614,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
@@ -7641,7 +7674,7 @@
       </c>
       <c r="C4" s="2" t="n">
         <f aca="false">+B12*0.3048</f>
-        <v>80077.6480153846</v>
+        <v>80077.6480153845</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8256,22 +8289,22 @@
   </sheetPr>
   <dimension ref="A1:L324"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A221" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A221" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F240" activeCellId="0" sqref="F240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
@@ -8409,7 +8442,7 @@
       </c>
       <c r="B5" s="2" t="n">
         <f aca="false">(B39+B73)/2+B107+B141+B176+B211</f>
-        <v>3549489.06445668</v>
+        <v>3549489.06445669</v>
       </c>
       <c r="C5" s="2" t="n">
         <f aca="false">(C39+C73)/2+C107+C141</f>
@@ -8486,7 +8519,7 @@
       </c>
       <c r="J6" s="2" t="n">
         <f aca="false">(J40+J74)/2+J108+J142+$E245</f>
-        <v>9234688.86305688</v>
+        <v>9234688.86305689</v>
       </c>
       <c r="K6" s="2" t="n">
         <f aca="false">(K40+K74)/2+K108+K142+$E245</f>
@@ -8568,7 +8601,7 @@
       </c>
       <c r="H8" s="2" t="n">
         <f aca="false">(H42+H76)/2+H110+H144+$E247</f>
-        <v>8652379.24980954</v>
+        <v>8652379.24980955</v>
       </c>
       <c r="I8" s="2" t="n">
         <f aca="false">(I42+I76)/2+I110+I144+$E247</f>
@@ -8580,7 +8613,7 @@
       </c>
       <c r="K8" s="2" t="n">
         <f aca="false">(K42+K76)/2+K110+K144+$E247</f>
-        <v>8176189.34134602</v>
+        <v>8176189.34134603</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8605,11 +8638,11 @@
       </c>
       <c r="F9" s="2" t="n">
         <f aca="false">(F43+F77)/2+F111+F145+$E248</f>
-        <v>9025800.28479189</v>
+        <v>9025800.28479188</v>
       </c>
       <c r="G9" s="2" t="n">
         <f aca="false">(G43+G77)/2+G111+G145+$E248</f>
-        <v>8949621.47131418</v>
+        <v>8949621.47131417</v>
       </c>
       <c r="H9" s="2" t="n">
         <f aca="false">(H43+H77)/2+H111+H145+$E248</f>
@@ -8621,11 +8654,11 @@
       </c>
       <c r="J9" s="2" t="n">
         <f aca="false">(J43+J77)/2+J111+J145+$E248</f>
-        <v>7916071.90830445</v>
+        <v>7916071.90830444</v>
       </c>
       <c r="K9" s="2" t="n">
         <f aca="false">(K43+K77)/2+K111+K145+$E248</f>
-        <v>7627281.55984814</v>
+        <v>7627281.55984813</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8658,7 +8691,7 @@
       </c>
       <c r="H10" s="2" t="n">
         <f aca="false">(H44+H78)/2+H112+H146+$E249</f>
-        <v>8351052.50238641</v>
+        <v>8351052.50238642</v>
       </c>
       <c r="I10" s="2" t="n">
         <f aca="false">(I44+I78)/2+I112+I146+$E249</f>
@@ -8670,7 +8703,7 @@
       </c>
       <c r="K10" s="2" t="n">
         <f aca="false">(K44+K78)/2+K112+K146+$E249</f>
-        <v>7882708.39391454</v>
+        <v>7882708.39391455</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8679,7 +8712,7 @@
       </c>
       <c r="B11" s="2" t="n">
         <f aca="false">(B45+B79)/2+B113+B147+B182+B217</f>
-        <v>3696563.9771218</v>
+        <v>3696563.97712181</v>
       </c>
       <c r="C11" s="2" t="n">
         <f aca="false">(C45+C79)/2+C113+C147</f>
@@ -8695,7 +8728,7 @@
       </c>
       <c r="F11" s="2" t="n">
         <f aca="false">(F45+F79)/2+F113+F147+$E250</f>
-        <v>9371809.99119238</v>
+        <v>9371809.99119239</v>
       </c>
       <c r="G11" s="2" t="n">
         <f aca="false">(G45+G79)/2+G113+G147+$E250</f>
@@ -8703,7 +8736,7 @@
       </c>
       <c r="H11" s="2" t="n">
         <f aca="false">(H45+H79)/2+H113+H147+$E250</f>
-        <v>8572029.88339773</v>
+        <v>8572029.88339772</v>
       </c>
       <c r="I11" s="2" t="n">
         <f aca="false">(I45+I79)/2+I113+I147+$E250</f>
@@ -8724,7 +8757,7 @@
       </c>
       <c r="B12" s="2" t="n">
         <f aca="false">(B46+B80)/2+B114+B148+B183+B218</f>
-        <v>3696291.01416252</v>
+        <v>3696291.01416253</v>
       </c>
       <c r="C12" s="2" t="n">
         <f aca="false">(C46+C80)/2+C114+C148</f>
@@ -8744,7 +8777,7 @@
       </c>
       <c r="G12" s="2" t="n">
         <f aca="false">(G46+G80)/2+G114+G148+$E251</f>
-        <v>9092767.02567105</v>
+        <v>9092767.02567106</v>
       </c>
       <c r="H12" s="2" t="n">
         <f aca="false">(H46+H80)/2+H114+H148+$E251</f>
@@ -8756,7 +8789,7 @@
       </c>
       <c r="J12" s="2" t="n">
         <f aca="false">(J46+J80)/2+J114+J148+$E251</f>
-        <v>8214822.11033071</v>
+        <v>8214822.11033072</v>
       </c>
       <c r="K12" s="2" t="n">
         <f aca="false">(K46+K80)/2+K114+K148+$E251</f>
@@ -8830,11 +8863,11 @@
       </c>
       <c r="F14" s="2" t="n">
         <f aca="false">(F48+F82)/2+F116+F150+$E253</f>
-        <v>7953304.61885566</v>
+        <v>7953304.61885565</v>
       </c>
       <c r="G14" s="2" t="n">
         <f aca="false">(G48+G82)/2+G116+G150+$E253</f>
-        <v>7865611.57826799</v>
+        <v>7865611.57826798</v>
       </c>
       <c r="H14" s="2" t="n">
         <f aca="false">(H48+H82)/2+H116+H150+$E253</f>
@@ -8842,15 +8875,15 @@
       </c>
       <c r="I14" s="2" t="n">
         <f aca="false">(I48+I82)/2+I116+I150+$E253</f>
-        <v>7194220.43024427</v>
+        <v>7194220.43024426</v>
       </c>
       <c r="J14" s="2" t="n">
         <f aca="false">(J48+J82)/2+J116+J150+$E253</f>
-        <v>7143070.67127608</v>
+        <v>7143070.67127607</v>
       </c>
       <c r="K14" s="2" t="n">
         <f aca="false">(K48+K82)/2+K116+K150+$E253</f>
-        <v>6905603.6000692</v>
+        <v>6905603.60006919</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8920,7 +8953,7 @@
       </c>
       <c r="F16" s="2" t="n">
         <f aca="false">(F50+F84)/2+F118+F152+$E255</f>
-        <v>6132676.44841521</v>
+        <v>6132676.44841522</v>
       </c>
       <c r="G16" s="2" t="n">
         <f aca="false">(G50+G84)/2+G118+G152+$E255</f>
@@ -8973,7 +9006,7 @@
       </c>
       <c r="H17" s="2" t="n">
         <f aca="false">(H51+H85)/2+H119+H153+$E256</f>
-        <v>5379086.4235333</v>
+        <v>5379086.42353331</v>
       </c>
       <c r="I17" s="2" t="n">
         <f aca="false">(I51+I85)/2+I119+I153+$E256</f>
@@ -9116,11 +9149,11 @@
       </c>
       <c r="J20" s="2" t="n">
         <f aca="false">(J54+J88)/2+J122+J156+$E259</f>
-        <v>4347697.86425253</v>
+        <v>4347697.86425252</v>
       </c>
       <c r="K20" s="2" t="n">
         <f aca="false">(K54+K88)/2+K122+K156+$E259</f>
-        <v>4225756.47139428</v>
+        <v>4225756.47139427</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9129,7 +9162,7 @@
       </c>
       <c r="B21" s="2" t="n">
         <f aca="false">(B55+B89)/2+B123+B157+B192+B227</f>
-        <v>2280896.85347111</v>
+        <v>2280896.85347112</v>
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">(C55+C89)/2+C123+C157</f>
@@ -9145,27 +9178,27 @@
       </c>
       <c r="F21" s="2" t="n">
         <f aca="false">(F55+F89)/2+F123+F157+$E260</f>
-        <v>4839504.99046252</v>
+        <v>4839504.99046251</v>
       </c>
       <c r="G21" s="2" t="n">
         <f aca="false">(G55+G89)/2+G123+G157+$E260</f>
-        <v>4736938.27924453</v>
+        <v>4736938.27924452</v>
       </c>
       <c r="H21" s="2" t="n">
         <f aca="false">(H55+H89)/2+H123+H157+$E260</f>
-        <v>4440809.03459111</v>
+        <v>4440809.0345911</v>
       </c>
       <c r="I21" s="2" t="n">
         <f aca="false">(I55+I89)/2+I123+I157+$E260</f>
-        <v>4144218.40083721</v>
+        <v>4144218.4008372</v>
       </c>
       <c r="J21" s="2" t="n">
         <f aca="false">(J55+J89)/2+J123+J157+$E260</f>
-        <v>4119776.6706718</v>
+        <v>4119776.67067179</v>
       </c>
       <c r="K21" s="2" t="n">
         <f aca="false">(K55+K89)/2+K123+K157+$E260</f>
-        <v>4014096.34068052</v>
+        <v>4014096.34068051</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9198,7 +9231,7 @@
       </c>
       <c r="H22" s="2" t="n">
         <f aca="false">(H56+H90)/2+H124+H158+$E261</f>
-        <v>4180864.62905303</v>
+        <v>4180864.62905304</v>
       </c>
       <c r="I22" s="2" t="n">
         <f aca="false">(I56+I90)/2+I124+I158+$E261</f>
@@ -9235,27 +9268,27 @@
       </c>
       <c r="F23" s="2" t="n">
         <f aca="false">(F57+F91)/2+F125+F159+$E262</f>
-        <v>4218628.76377834</v>
+        <v>4218628.76377835</v>
       </c>
       <c r="G23" s="2" t="n">
         <f aca="false">(G57+G91)/2+G125+G159+$E262</f>
-        <v>4161566.05038028</v>
+        <v>4161566.05038029</v>
       </c>
       <c r="H23" s="2" t="n">
         <f aca="false">(H57+H91)/2+H125+H159+$E262</f>
-        <v>3894183.45903462</v>
+        <v>3894183.45903463</v>
       </c>
       <c r="I23" s="2" t="n">
         <f aca="false">(I57+I91)/2+I125+I159+$E262</f>
-        <v>3459171.06657614</v>
+        <v>3459171.06657616</v>
       </c>
       <c r="J23" s="2" t="n">
         <f aca="false">(J57+J91)/2+J125+J159+$E262</f>
-        <v>3439537.92249315</v>
+        <v>3439537.92249316</v>
       </c>
       <c r="K23" s="2" t="n">
         <f aca="false">(K57+K91)/2+K125+K159+$E262</f>
-        <v>3356537.22894187</v>
+        <v>3356537.22894189</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9280,7 +9313,7 @@
       </c>
       <c r="F24" s="2" t="n">
         <f aca="false">(F58+F92)/2+F126+F160+$E263</f>
-        <v>4123516.32832725</v>
+        <v>4123516.32832724</v>
       </c>
       <c r="G24" s="2" t="n">
         <f aca="false">(G58+G92)/2+G126+G160+$E263</f>
@@ -9288,11 +9321,11 @@
       </c>
       <c r="H24" s="2" t="n">
         <f aca="false">(H58+H92)/2+H126+H160+$E263</f>
-        <v>3847571.62889417</v>
+        <v>3847571.62889416</v>
       </c>
       <c r="I24" s="2" t="n">
         <f aca="false">(I58+I92)/2+I126+I160+$E263</f>
-        <v>3329480.82429879</v>
+        <v>3329480.82429878</v>
       </c>
       <c r="J24" s="2" t="n">
         <f aca="false">(J58+J92)/2+J126+J160+$E263</f>
@@ -9300,7 +9333,7 @@
       </c>
       <c r="K24" s="2" t="n">
         <f aca="false">(K58+K92)/2+K126+K160+$E263</f>
-        <v>3238112.22912422</v>
+        <v>3238112.22912421</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9325,11 +9358,11 @@
       </c>
       <c r="F25" s="2" t="n">
         <f aca="false">(F59+F93)/2+F127+F161+$E264</f>
-        <v>4194126.79066954</v>
+        <v>4194126.79066955</v>
       </c>
       <c r="G25" s="2" t="n">
         <f aca="false">(G59+G93)/2+G127+G161+$E264</f>
-        <v>4176526.71935599</v>
+        <v>4176526.719356</v>
       </c>
       <c r="H25" s="2" t="n">
         <f aca="false">(H59+H93)/2+H127+H161+$E264</f>
@@ -9415,7 +9448,7 @@
       </c>
       <c r="F27" s="2" t="n">
         <f aca="false">(F61+F95)/2+F129+F163+$E266</f>
-        <v>4003223.40004819</v>
+        <v>4003223.40004818</v>
       </c>
       <c r="G27" s="2" t="n">
         <f aca="false">(G61+G95)/2+G129+G163+$E266</f>
@@ -9489,7 +9522,7 @@
       </c>
       <c r="B29" s="2" t="n">
         <f aca="false">(B63+B97)/2+B131+B165+B200+B235</f>
-        <v>650401.799590688</v>
+        <v>650401.799590687</v>
       </c>
       <c r="C29" s="2" t="n">
         <f aca="false">(C63+C97)/2+C131+C165</f>
@@ -9550,7 +9583,7 @@
       </c>
       <c r="F30" s="2" t="n">
         <f aca="false">(F64+F98)/2+F132+F166+$E269</f>
-        <v>3795916.16748921</v>
+        <v>3795916.16748922</v>
       </c>
       <c r="G30" s="2" t="n">
         <f aca="false">(G64+G98)/2+G132+G166+$E269</f>
@@ -9562,7 +9595,7 @@
       </c>
       <c r="I30" s="2" t="n">
         <f aca="false">(I64+I98)/2+I132+I166+$E269</f>
-        <v>2893444.87745402</v>
+        <v>2893444.87745403</v>
       </c>
       <c r="J30" s="2" t="n">
         <f aca="false">(J64+J98)/2+J132+J166+$E269</f>
@@ -9595,11 +9628,11 @@
       </c>
       <c r="F31" s="2" t="n">
         <f aca="false">(F65+F99)/2+F133+F167+$E270</f>
-        <v>3863977.18880911</v>
+        <v>3863977.1888091</v>
       </c>
       <c r="G31" s="2" t="n">
         <f aca="false">(G65+G99)/2+G133+G167+$E270</f>
-        <v>3776377.889371</v>
+        <v>3776377.88937099</v>
       </c>
       <c r="H31" s="2" t="n">
         <f aca="false">(H65+H99)/2+H133+H167+$E270</f>
@@ -9648,7 +9681,7 @@
       </c>
       <c r="H32" s="2" t="n">
         <f aca="false">(H66+H100)/2+H134+H168+$E271</f>
-        <v>3946634.25611633</v>
+        <v>3946634.25611632</v>
       </c>
       <c r="I32" s="2" t="n">
         <f aca="false">(I66+I100)/2+I134+I168+$E271</f>
@@ -9685,7 +9718,7 @@
       </c>
       <c r="F33" s="2" t="n">
         <f aca="false">(F67+F101)/2+F135+F169+$E272</f>
-        <v>4189236.63730955</v>
+        <v>4189236.63730954</v>
       </c>
       <c r="G33" s="2" t="n">
         <f aca="false">(G67+G101)/2+G135+G169+$E272</f>
@@ -9693,11 +9726,11 @@
       </c>
       <c r="H33" s="2" t="n">
         <f aca="false">(H67+H101)/2+H135+H169+$E272</f>
-        <v>4044200.41762343</v>
+        <v>4044200.41762342</v>
       </c>
       <c r="I33" s="2" t="n">
         <f aca="false">(I67+I101)/2+I135+I169+$E272</f>
-        <v>3265141.33140008</v>
+        <v>3265141.33140007</v>
       </c>
       <c r="J33" s="2" t="n">
         <f aca="false">(J67+J101)/2+J135+J169+$E272</f>
@@ -9705,7 +9738,7 @@
       </c>
       <c r="K33" s="2" t="n">
         <f aca="false">(K67+K101)/2+K135+K169+$E272</f>
-        <v>3296835.07675979</v>
+        <v>3296835.07675978</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14876,7 +14909,7 @@
       </c>
       <c r="E249" s="2" t="n">
         <f aca="false">+B250+(D249-A250)*(B251-B250)/(A251-A250)</f>
-        <v>7548753.76532664</v>
+        <v>7548753.76532665</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15041,7 +15074,7 @@
       </c>
       <c r="E260" s="2" t="n">
         <f aca="false">+B266+(D260-A266)*(B267-B266)/(A267-A266)</f>
-        <v>3734155.96927578</v>
+        <v>3734155.96927577</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15056,7 +15089,7 @@
       </c>
       <c r="E261" s="2" t="n">
         <f aca="false">+B267+(D261-A267)*(B268-B267)/(A268-A267)</f>
-        <v>3420656.98720402</v>
+        <v>3420656.98720403</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15071,7 +15104,7 @@
       </c>
       <c r="E262" s="2" t="n">
         <f aca="false">+B268+(D262-A268)*(B269-B268)/(A269-A268)</f>
-        <v>3083333.67982399</v>
+        <v>3083333.679824</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15086,7 +15119,7 @@
       </c>
       <c r="E263" s="2" t="n">
         <f aca="false">+B269+(D263-A269)*(B270-B269)/(A270-A269)</f>
-        <v>2966196.18387221</v>
+        <v>2966196.1838722</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15101,7 +15134,7 @@
       </c>
       <c r="E264" s="2" t="n">
         <f aca="false">+B270+(D264-A270)*(B271-B270)/(A271-A270)</f>
-        <v>3013094.65572115</v>
+        <v>3013094.65572116</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15659,7 +15692,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -15735,7 +15768,7 @@
       </c>
       <c r="J3" s="0" t="n">
         <f aca="false">C3 * 5.11 + C37 *1.68</f>
-        <v>134383.515396135</v>
+        <v>134383.515396136</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>10</v>
@@ -15812,7 +15845,7 @@
       </c>
       <c r="N5" s="2" t="n">
         <f aca="false">J5/(5.11+1.68)/5.28</f>
-        <v>5031.64646785342</v>
+        <v>5031.64646785343</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15933,7 +15966,7 @@
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">C9 * 5.11 + C43 *1.68</f>
-        <v>252562.535839484</v>
+        <v>252562.535839483</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>70</v>
@@ -15944,7 +15977,7 @@
       </c>
       <c r="N9" s="2" t="n">
         <f aca="false">J9/(5.11+1.68)/5.28</f>
-        <v>7044.74427186492</v>
+        <v>7044.74427186491</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15977,7 +16010,7 @@
       </c>
       <c r="N10" s="2" t="n">
         <f aca="false">J10/(5.11+1.68)/5.28</f>
-        <v>7420.22028033209</v>
+        <v>7420.22028033208</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16043,7 +16076,7 @@
       </c>
       <c r="N12" s="2" t="n">
         <f aca="false">J12/(5.11+1.68)/5.28</f>
-        <v>7951.9133369143</v>
+        <v>7951.91333691431</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16076,7 +16109,7 @@
       </c>
       <c r="N13" s="2" t="n">
         <f aca="false">J13/(5.11+1.68)/5.28</f>
-        <v>8189.18165759432</v>
+        <v>8189.18165759433</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16127,7 +16160,7 @@
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">B15 * 5.11 + B49 *1.68</f>
-        <v>525153.439129073</v>
+        <v>525153.439129074</v>
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">C15 * 5.11 + C49 *1.68</f>
@@ -16142,7 +16175,7 @@
       </c>
       <c r="N15" s="2" t="n">
         <f aca="false">J15/(5.11+1.68)/5.28</f>
-        <v>8552.46128613526</v>
+        <v>8552.46128613527</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16175,7 +16208,7 @@
       </c>
       <c r="N16" s="2" t="n">
         <f aca="false">J16/(5.11+1.68)/5.28</f>
-        <v>8692.69950455703</v>
+        <v>8692.69950455704</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16193,7 +16226,7 @@
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">B17 * 5.11 + B51 *1.68</f>
-        <v>524184.754503865</v>
+        <v>524184.754503866</v>
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">C17 * 5.11 + C51 *1.68</f>
@@ -16274,7 +16307,7 @@
       </c>
       <c r="N19" s="2" t="n">
         <f aca="false">J19/(5.11+1.68)/5.28</f>
-        <v>8904.79125212438</v>
+        <v>8904.79125212437</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16296,7 +16329,7 @@
       </c>
       <c r="J20" s="0" t="n">
         <f aca="false">C20 * 5.11 + C54 *1.68</f>
-        <v>319994.909587655</v>
+        <v>319994.909587654</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>180</v>
@@ -16307,7 +16340,7 @@
       </c>
       <c r="N20" s="2" t="n">
         <f aca="false">J20/(5.11+1.68)/5.28</f>
-        <v>8925.64013443496</v>
+        <v>8925.64013443495</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16325,7 +16358,7 @@
       </c>
       <c r="I21" s="0" t="n">
         <f aca="false">B21 * 5.11 + B55 *1.68</f>
-        <v>511006.503064816</v>
+        <v>511006.503064817</v>
       </c>
       <c r="J21" s="0" t="n">
         <f aca="false">C21 * 5.11 + C55 *1.68</f>
@@ -16358,7 +16391,7 @@
       </c>
       <c r="I22" s="0" t="n">
         <f aca="false">B22 * 5.11 + B56 *1.68</f>
-        <v>511394.220420773</v>
+        <v>511394.220420774</v>
       </c>
       <c r="J22" s="0" t="n">
         <f aca="false">C22 * 5.11 + C56 *1.68</f>
@@ -16428,7 +16461,7 @@
       </c>
       <c r="J24" s="0" t="n">
         <f aca="false">C24 * 5.11 + C58 *1.68</f>
-        <v>319212.027345837</v>
+        <v>319212.027345836</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>220</v>
@@ -16439,7 +16472,7 @@
       </c>
       <c r="N24" s="2" t="n">
         <f aca="false">J24/(5.11+1.68)/5.28</f>
-        <v>8903.80314594314</v>
+        <v>8903.80314594313</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16457,7 +16490,7 @@
       </c>
       <c r="I25" s="0" t="n">
         <f aca="false">B25 * 5.11 + B59 *1.68</f>
-        <v>505422.179074635</v>
+        <v>505422.179074636</v>
       </c>
       <c r="J25" s="0" t="n">
         <f aca="false">C25 * 5.11 + C59 *1.68</f>
@@ -16505,7 +16538,7 @@
       </c>
       <c r="N26" s="2" t="n">
         <f aca="false">J26/(5.11+1.68)/5.28</f>
-        <v>8829.56359955874</v>
+        <v>8829.56359955873</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16523,7 +16556,7 @@
       </c>
       <c r="I27" s="0" t="n">
         <f aca="false">B27 * 5.11 + B61 *1.68</f>
-        <v>503473.417698155</v>
+        <v>503473.417698156</v>
       </c>
       <c r="J27" s="0" t="n">
         <f aca="false">C27 * 5.11 + C61 *1.68</f>
@@ -16538,7 +16571,7 @@
       </c>
       <c r="N27" s="2" t="n">
         <f aca="false">J27/(5.11+1.68)/5.28</f>
-        <v>8771.56208830572</v>
+        <v>8771.56208830573</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16571,7 +16604,7 @@
       </c>
       <c r="N28" s="2" t="n">
         <f aca="false">J28/(5.11+1.68)/5.28</f>
-        <v>8691.16473105821</v>
+        <v>8691.1647310582</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16604,7 +16637,7 @@
       </c>
       <c r="N29" s="2" t="n">
         <f aca="false">J29/(5.11+1.68)/5.28</f>
-        <v>8647.33629056625</v>
+        <v>8647.33629056626</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16637,7 +16670,7 @@
       </c>
       <c r="N30" s="2" t="n">
         <f aca="false">J30/(5.11+1.68)/5.28</f>
-        <v>8540.24897279954</v>
+        <v>8540.24897279953</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17082,10 +17115,10 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.0607287449393"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -17293,7 +17326,7 @@
       </c>
       <c r="J7" s="2" t="n">
         <f aca="false">(B7+B41+B75+B109)/(6.4+12.4+22+55.6)*0.3048</f>
-        <v>3207.01793774536</v>
+        <v>3207.01793774537</v>
       </c>
       <c r="K7" s="2" t="n">
         <f aca="false">(C7+C41+C75+C109)/(6.4+12.4+22+55.6)*0.3048</f>
@@ -17365,11 +17398,11 @@
       </c>
       <c r="J9" s="2" t="n">
         <f aca="false">(B9+B43+B77+B111)/(6.4+12.4+22+55.6)*0.3048</f>
-        <v>2921.17173887763</v>
+        <v>2921.17173887764</v>
       </c>
       <c r="K9" s="2" t="n">
         <f aca="false">(C9+C43+C77+C111)/(6.4+12.4+22+55.6)*0.3048</f>
-        <v>2803.71508600371</v>
+        <v>2803.7150860037</v>
       </c>
       <c r="L9" s="2" t="n">
         <f aca="false">(D9+D43+D77+D111)/(6.4+12.4+22+55.6)*0.3048</f>
@@ -17445,7 +17478,7 @@
       </c>
       <c r="L11" s="2" t="n">
         <f aca="false">(D11+D45+D79+D113)/(6.4+12.4+22+55.6)*0.3048</f>
-        <v>2806.84476330968</v>
+        <v>2806.84476330969</v>
       </c>
       <c r="M11" s="2" t="n">
         <f aca="false">(E11+E45+E79+E113)/(6.4+12.4+22+55.6)*0.3048</f>
@@ -17629,7 +17662,7 @@
       </c>
       <c r="M16" s="2" t="n">
         <f aca="false">(E16+E50+E84+E118)/(6.4+12.4+22+55.6)*0.3048</f>
-        <v>2099.74063368259</v>
+        <v>2099.7406336826</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17657,7 +17690,7 @@
       </c>
       <c r="K17" s="2" t="n">
         <f aca="false">(C17+C51+C85+C119)/(6.4+12.4+22+55.6)*0.3048</f>
-        <v>2310.9887510892</v>
+        <v>2310.98875108919</v>
       </c>
       <c r="L17" s="2" t="n">
         <f aca="false">(D17+D51+D85+D119)/(6.4+12.4+22+55.6)*0.3048</f>
@@ -17833,7 +17866,7 @@
       </c>
       <c r="J22" s="2" t="n">
         <f aca="false">(B22+B56+B90+B124)/(6.4+12.4+22+55.6)*0.3048</f>
-        <v>3164.75219639025</v>
+        <v>3164.75219639026</v>
       </c>
       <c r="K22" s="2" t="n">
         <f aca="false">(C22+C56+C90+C124)/(6.4+12.4+22+55.6)*0.3048</f>
@@ -17841,7 +17874,7 @@
       </c>
       <c r="L22" s="2" t="n">
         <f aca="false">(D22+D56+D90+D124)/(6.4+12.4+22+55.6)*0.3048</f>
-        <v>2146.65493023483</v>
+        <v>2146.65493023482</v>
       </c>
       <c r="M22" s="2" t="n">
         <f aca="false">(E22+E56+E90+E124)/(6.4+12.4+22+55.6)*0.3048</f>
@@ -17869,11 +17902,11 @@
       </c>
       <c r="J23" s="2" t="n">
         <f aca="false">(B23+B57+B91+B125)/(6.4+12.4+22+55.6)*0.3048</f>
-        <v>2948.06548990983</v>
+        <v>2948.06548990984</v>
       </c>
       <c r="K23" s="2" t="n">
         <f aca="false">(C23+C57+C91+C125)/(6.4+12.4+22+55.6)*0.3048</f>
-        <v>2271.56683438273</v>
+        <v>2271.56683438274</v>
       </c>
       <c r="L23" s="2" t="n">
         <f aca="false">(D23+D57+D91+D125)/(6.4+12.4+22+55.6)*0.3048</f>
@@ -17881,7 +17914,7 @@
       </c>
       <c r="M23" s="2" t="n">
         <f aca="false">(E23+E57+E91+E125)/(6.4+12.4+22+55.6)*0.3048</f>
-        <v>1802.08213292418</v>
+        <v>1802.08213292419</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17949,11 +17982,11 @@
       </c>
       <c r="L25" s="2" t="n">
         <f aca="false">(D25+D59+D93+D127)/(6.4+12.4+22+55.6)*0.3048</f>
-        <v>2058.88333784757</v>
+        <v>2058.88333784758</v>
       </c>
       <c r="M25" s="2" t="n">
         <f aca="false">(E25+E59+E93+E127)/(6.4+12.4+22+55.6)*0.3048</f>
-        <v>1873.8670703641</v>
+        <v>1873.86707036411</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18097,7 +18130,7 @@
       </c>
       <c r="M29" s="2" t="n">
         <f aca="false">(E29+E63+E97+E131)/(6.4+12.4+22+55.6)*0.3048</f>
-        <v>2004.81644074667</v>
+        <v>2004.81644074666</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18125,7 +18158,7 @@
       </c>
       <c r="K30" s="2" t="n">
         <f aca="false">(C30+C64+C98+C132)/(6.4+12.4+22+55.6)*0.3048</f>
-        <v>2748.47150794834</v>
+        <v>2748.47150794833</v>
       </c>
       <c r="L30" s="2" t="n">
         <f aca="false">(D30+D64+D98+D132)/(6.4+12.4+22+55.6)*0.3048</f>
@@ -18170,7 +18203,7 @@
       </c>
       <c r="M31" s="2" t="n">
         <f aca="false">(E31+E65+E99+E133)/(6.4+12.4+22+55.6)*0.3048</f>
-        <v>2523.61833401799</v>
+        <v>2523.61833401798</v>
       </c>
       <c r="O31" s="8"/>
     </row>
@@ -20444,7 +20477,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -20860,6 +20893,472 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>48648.28</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>32897.03</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2116.32</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>50596.55</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>30762.01</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>4950.27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>51759.16</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>28799.02</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>7447.46</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>52516.33</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>27025.69</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>10807.84</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>52814.11</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>25415.04</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>13071.88</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>175</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>52526.09</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>24032.45</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>15233</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>51672.91</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>22847.85</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>16715.36</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>50618.49</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>21821.38</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>17532.14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>49513.25</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>20907.8</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>18116.91</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>275</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>48370.69</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>20116.93</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>18788.06</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>47223.19</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>19427.09</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>18816.55</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>46052.38</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>18840.34</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>18687.83</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>350</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>44902.8</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>18335.55</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>17938.96</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>375</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>43795.04</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>17896.66</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>17321.83</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>42697.2</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>17480.39</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>16838.83</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>425</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>41665.85</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>17094.99</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>15973.93</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>40714.04</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>16744.73</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>15593</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>475</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>39786.06</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>16417.48</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>15275.23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>38897.96</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>16137.46</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>14734.6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>550</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>37261.25</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>15695.59</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>13349.39</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>35857.26</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>15349.23</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>12212.15</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>650</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>34713.81</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>15059.83</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>11024.56</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>700</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>33694.37</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>14891.1</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>10010.47</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>32852.21</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>14910.34</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>8975.34</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>32230.26</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>15056.86</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>8327.79</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>31779.36</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>15312.26</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>7479.93</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>900</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>31486.06</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>15642.33</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>7015.36</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>31222.62</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>16553.4</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>5918.44</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>31285.92</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>17354.9</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>4988.08</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>31733.53</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>17894.26</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>4455.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -20869,7 +21368,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1052631578947"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -21280,7 +21779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -21294,12 +21793,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
@@ -21307,10 +21806,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>21</v>
@@ -21327,13 +21826,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>1</v>
@@ -22202,10 +22701,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -22220,13 +22719,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>1</v>
@@ -23065,48 +23564,48 @@
         <v>9</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="L70" s="18" t="n">
+        <v>141</v>
+      </c>
+      <c r="L70" s="19" t="n">
         <v>41750</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="L71" s="18"/>
+        <v>143</v>
+      </c>
+      <c r="L71" s="19"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23117,16 +23616,16 @@
         <f aca="false">+C73+D73+1000000*(E73+F73)</f>
         <v>9172177</v>
       </c>
-      <c r="C73" s="19" t="n">
+      <c r="C73" s="20" t="n">
         <v>216584</v>
       </c>
       <c r="D73" s="8" t="n">
         <v>3188593</v>
       </c>
-      <c r="E73" s="20" t="n">
+      <c r="E73" s="0" t="n">
         <v>1.114</v>
       </c>
-      <c r="F73" s="20" t="n">
+      <c r="F73" s="0" t="n">
         <v>4.653</v>
       </c>
       <c r="G73" s="2"/>
@@ -23144,16 +23643,16 @@
         <f aca="false">+C74+D74+1000000*(E74+F74)</f>
         <v>9497207</v>
       </c>
-      <c r="C74" s="19" t="n">
+      <c r="C74" s="20" t="n">
         <v>216584</v>
       </c>
       <c r="D74" s="8" t="n">
         <v>3307623</v>
       </c>
-      <c r="E74" s="20" t="n">
+      <c r="E74" s="0" t="n">
         <v>1.157</v>
       </c>
-      <c r="F74" s="20" t="n">
+      <c r="F74" s="0" t="n">
         <v>4.816</v>
       </c>
       <c r="G74" s="2"/>
@@ -23171,16 +23670,16 @@
         <f aca="false">+C75+D75+1000000*(E75+F75)</f>
         <v>9727368</v>
       </c>
-      <c r="C75" s="19" t="n">
+      <c r="C75" s="20" t="n">
         <v>216584</v>
       </c>
       <c r="D75" s="8" t="n">
         <v>3393784</v>
       </c>
-      <c r="E75" s="20" t="n">
+      <c r="E75" s="0" t="n">
         <v>1.191</v>
       </c>
-      <c r="F75" s="20" t="n">
+      <c r="F75" s="0" t="n">
         <v>4.926</v>
       </c>
       <c r="G75" s="2"/>
@@ -23198,16 +23697,16 @@
         <f aca="false">+C76+D76+1000000*(E76+F76)</f>
         <v>9891964</v>
       </c>
-      <c r="C76" s="19" t="n">
+      <c r="C76" s="20" t="n">
         <v>216584</v>
       </c>
       <c r="D76" s="8" t="n">
         <v>3453380</v>
       </c>
-      <c r="E76" s="20" t="n">
+      <c r="E76" s="0" t="n">
         <v>1.218</v>
       </c>
-      <c r="F76" s="20" t="n">
+      <c r="F76" s="0" t="n">
         <v>5.004</v>
       </c>
       <c r="G76" s="2"/>
@@ -23225,16 +23724,16 @@
         <f aca="false">+C77+D77+1000000*(E77+F77)</f>
         <v>10047368</v>
       </c>
-      <c r="C77" s="19" t="n">
+      <c r="C77" s="20" t="n">
         <v>216584</v>
       </c>
       <c r="D77" s="8" t="n">
         <v>3505784</v>
       </c>
-      <c r="E77" s="20" t="n">
+      <c r="E77" s="0" t="n">
         <v>1.252</v>
       </c>
-      <c r="F77" s="20" t="n">
+      <c r="F77" s="0" t="n">
         <v>5.073</v>
       </c>
       <c r="G77" s="2"/>
@@ -23252,16 +23751,16 @@
         <f aca="false">+C78+D78+1000000*(E78+F78)</f>
         <v>10109646</v>
       </c>
-      <c r="C78" s="19" t="n">
+      <c r="C78" s="20" t="n">
         <v>216584</v>
       </c>
       <c r="D78" s="8" t="n">
         <v>3521062</v>
       </c>
-      <c r="E78" s="20" t="n">
+      <c r="E78" s="0" t="n">
         <v>1.272</v>
       </c>
-      <c r="F78" s="20" t="n">
+      <c r="F78" s="0" t="n">
         <v>5.1</v>
       </c>
       <c r="G78" s="2"/>
@@ -23279,16 +23778,16 @@
         <f aca="false">+C79+D79+1000000*(E79+F79)</f>
         <v>10114742</v>
       </c>
-      <c r="C79" s="19" t="n">
+      <c r="C79" s="20" t="n">
         <v>216584</v>
       </c>
       <c r="D79" s="8" t="n">
         <v>3521158</v>
       </c>
-      <c r="E79" s="20" t="n">
+      <c r="E79" s="0" t="n">
         <v>1.274</v>
       </c>
-      <c r="F79" s="20" t="n">
+      <c r="F79" s="0" t="n">
         <v>5.103</v>
       </c>
       <c r="G79" s="2"/>
@@ -23312,10 +23811,10 @@
       <c r="D80" s="8" t="n">
         <v>3507561</v>
       </c>
-      <c r="E80" s="20" t="n">
+      <c r="E80" s="0" t="n">
         <v>1.285</v>
       </c>
-      <c r="F80" s="20" t="n">
+      <c r="F80" s="0" t="n">
         <v>5.086</v>
       </c>
       <c r="G80" s="2"/>
@@ -23339,10 +23838,10 @@
       <c r="D81" s="8" t="n">
         <v>3471549</v>
       </c>
-      <c r="E81" s="20" t="n">
+      <c r="E81" s="0" t="n">
         <v>1.281</v>
       </c>
-      <c r="F81" s="20" t="n">
+      <c r="F81" s="0" t="n">
         <v>5.041</v>
       </c>
       <c r="G81" s="2"/>
@@ -23366,10 +23865,10 @@
       <c r="D82" s="8" t="n">
         <v>3439012</v>
       </c>
-      <c r="E82" s="20" t="n">
+      <c r="E82" s="0" t="n">
         <v>1.27</v>
       </c>
-      <c r="F82" s="20" t="n">
+      <c r="F82" s="0" t="n">
         <v>4.987</v>
       </c>
       <c r="G82" s="2"/>
@@ -23393,10 +23892,10 @@
       <c r="D83" s="8" t="n">
         <v>3410357</v>
       </c>
-      <c r="E83" s="20" t="n">
+      <c r="E83" s="0" t="n">
         <v>1.266</v>
       </c>
-      <c r="F83" s="20" t="n">
+      <c r="F83" s="0" t="n">
         <v>4.954</v>
       </c>
       <c r="G83" s="2"/>
@@ -23420,10 +23919,10 @@
       <c r="D84" s="8" t="n">
         <v>3374219</v>
       </c>
-      <c r="E84" s="20" t="n">
+      <c r="E84" s="0" t="n">
         <v>1.259</v>
       </c>
-      <c r="F84" s="20" t="n">
+      <c r="F84" s="0" t="n">
         <v>4.921</v>
       </c>
       <c r="G84" s="2"/>
@@ -23447,10 +23946,10 @@
       <c r="D85" s="8" t="n">
         <v>3175146</v>
       </c>
-      <c r="E85" s="20" t="n">
+      <c r="E85" s="0" t="n">
         <v>1.217</v>
       </c>
-      <c r="F85" s="20" t="n">
+      <c r="F85" s="0" t="n">
         <v>4.757</v>
       </c>
       <c r="G85" s="2"/>
@@ -23474,10 +23973,10 @@
       <c r="D86" s="8" t="n">
         <v>3045111</v>
       </c>
-      <c r="E86" s="20" t="n">
+      <c r="E86" s="0" t="n">
         <v>1.176</v>
       </c>
-      <c r="F86" s="20" t="n">
+      <c r="F86" s="0" t="n">
         <v>4.467</v>
       </c>
       <c r="G86" s="2"/>
@@ -23501,10 +24000,10 @@
       <c r="D87" s="8" t="n">
         <v>2919394</v>
       </c>
-      <c r="E87" s="20" t="n">
+      <c r="E87" s="0" t="n">
         <v>1.136</v>
       </c>
-      <c r="F87" s="20" t="n">
+      <c r="F87" s="0" t="n">
         <v>4.315</v>
       </c>
       <c r="G87" s="2"/>
@@ -23528,10 +24027,10 @@
       <c r="D88" s="8" t="n">
         <v>2726870</v>
       </c>
-      <c r="E88" s="20" t="n">
+      <c r="E88" s="0" t="n">
         <v>1.084</v>
       </c>
-      <c r="F88" s="20" t="n">
+      <c r="F88" s="0" t="n">
         <v>4.138</v>
       </c>
       <c r="G88" s="2"/>
@@ -23555,10 +24054,10 @@
       <c r="D89" s="8" t="n">
         <v>2529699</v>
       </c>
-      <c r="E89" s="20" t="n">
+      <c r="E89" s="0" t="n">
         <v>1.033</v>
       </c>
-      <c r="F89" s="20" t="n">
+      <c r="F89" s="0" t="n">
         <v>3.932</v>
       </c>
       <c r="G89" s="2"/>
@@ -23582,10 +24081,10 @@
       <c r="D90" s="8" t="n">
         <v>2385364</v>
       </c>
-      <c r="E90" s="20" t="n">
+      <c r="E90" s="0" t="n">
         <v>1.011</v>
       </c>
-      <c r="F90" s="20" t="n">
+      <c r="F90" s="0" t="n">
         <v>3.833</v>
       </c>
       <c r="G90" s="2"/>
@@ -23609,10 +24108,10 @@
       <c r="D91" s="8" t="n">
         <v>2202602</v>
       </c>
-      <c r="E91" s="20" t="n">
+      <c r="E91" s="0" t="n">
         <v>1.041</v>
       </c>
-      <c r="F91" s="20" t="n">
+      <c r="F91" s="0" t="n">
         <v>3.971</v>
       </c>
       <c r="G91" s="2"/>
@@ -23636,10 +24135,10 @@
       <c r="D92" s="8" t="n">
         <v>2107623</v>
       </c>
-      <c r="E92" s="20" t="n">
+      <c r="E92" s="0" t="n">
         <v>1.105</v>
       </c>
-      <c r="F92" s="20" t="n">
+      <c r="F92" s="0" t="n">
         <v>4.302</v>
       </c>
       <c r="G92" s="2"/>
@@ -23663,10 +24162,10 @@
       <c r="D93" s="8" t="n">
         <v>2205675</v>
       </c>
-      <c r="E93" s="20" t="n">
+      <c r="E93" s="0" t="n">
         <v>1.356</v>
       </c>
-      <c r="F93" s="20" t="n">
+      <c r="F93" s="0" t="n">
         <v>5.208</v>
       </c>
       <c r="G93" s="2"/>
@@ -23690,10 +24189,10 @@
       <c r="D94" s="8" t="n">
         <v>2411230</v>
       </c>
-      <c r="E94" s="20" t="n">
+      <c r="E94" s="0" t="n">
         <v>1.482</v>
       </c>
-      <c r="F94" s="20" t="n">
+      <c r="F94" s="0" t="n">
         <v>5.891</v>
       </c>
       <c r="G94" s="2"/>
@@ -23717,10 +24216,10 @@
       <c r="D95" s="8" t="n">
         <v>2900847</v>
       </c>
-      <c r="E95" s="20" t="n">
+      <c r="E95" s="0" t="n">
         <v>1.952</v>
       </c>
-      <c r="F95" s="20" t="n">
+      <c r="F95" s="0" t="n">
         <v>8.825</v>
       </c>
       <c r="G95" s="2"/>
@@ -23744,10 +24243,10 @@
       <c r="D96" s="8" t="n">
         <v>3760411</v>
       </c>
-      <c r="E96" s="20" t="n">
+      <c r="E96" s="0" t="n">
         <v>2.156</v>
       </c>
-      <c r="F96" s="20" t="n">
+      <c r="F96" s="0" t="n">
         <v>10.29</v>
       </c>
       <c r="G96" s="2"/>
@@ -23771,10 +24270,10 @@
       <c r="D97" s="8" t="n">
         <v>3546851</v>
       </c>
-      <c r="E97" s="20" t="n">
+      <c r="E97" s="0" t="n">
         <v>1.586</v>
       </c>
-      <c r="F97" s="20" t="n">
+      <c r="F97" s="0" t="n">
         <v>10.625</v>
       </c>
       <c r="G97" s="2"/>
@@ -23798,10 +24297,10 @@
       <c r="D98" s="8" t="n">
         <v>3999134</v>
       </c>
-      <c r="E98" s="20" t="n">
+      <c r="E98" s="0" t="n">
         <v>1.702</v>
       </c>
-      <c r="F98" s="20" t="n">
+      <c r="F98" s="0" t="n">
         <v>10.589</v>
       </c>
       <c r="G98" s="2"/>
@@ -23822,7 +24321,7 @@
       <c r="D99" s="8" t="n">
         <v>3657218</v>
       </c>
-      <c r="E99" s="20" t="n">
+      <c r="E99" s="0" t="n">
         <v>1.213</v>
       </c>
       <c r="F99" s="22" t="n">
@@ -23846,7 +24345,7 @@
       <c r="D100" s="8" t="n">
         <v>3408918</v>
       </c>
-      <c r="E100" s="20" t="n">
+      <c r="E100" s="0" t="n">
         <v>1.429</v>
       </c>
       <c r="F100" s="22" t="n">
@@ -23865,7 +24364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -23878,75 +24377,75 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="10" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B3" s="23" t="n">
         <v>221.1</v>
@@ -23990,7 +24489,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B4" s="23" t="n">
         <v>94</v>
@@ -24032,7 +24531,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B5" s="23" t="n">
         <v>6174</v>
@@ -24058,7 +24557,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B6" s="23" t="n">
         <v>1062.3</v>
@@ -24076,7 +24575,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B7" s="23" t="n">
         <v>142</v>
@@ -24094,7 +24593,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B8" s="23" t="n">
         <v>266.7115</v>
@@ -24111,7 +24610,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B9" s="23" t="n">
         <v>143.4</v>
@@ -24128,7 +24627,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B10" s="23" t="n">
         <v>95.8</v>
@@ -24145,7 +24644,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B11" s="23" t="n">
         <v>311</v>
@@ -24163,7 +24662,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B12" s="23" t="n">
         <v>4046</v>
@@ -24181,7 +24680,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B13" s="23" t="n">
         <v>513</v>
@@ -24199,7 +24698,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B14" s="23" t="n">
         <v>1066.03</v>
@@ -24216,7 +24715,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B15" s="23" t="n">
         <v>591</v>
@@ -24237,7 +24736,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D17" s="8" t="n">
         <f aca="false">+H17/43560</f>
@@ -24295,7 +24794,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
@@ -24941,7 +25440,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0323886639676"/>
@@ -25041,8 +25540,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -25109,7 +25608,7 @@
       </c>
       <c r="H5" s="3" t="n">
         <f aca="false">(B5 + B40) /(6.5 + 9)/5.28</f>
-        <v>1185.89210685161</v>
+        <v>1185.89210685162</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25199,7 +25698,7 @@
       </c>
       <c r="H11" s="3" t="n">
         <f aca="false">(B11 + B46) /(6.5 + 9)/5.28</f>
-        <v>1644.88654607891</v>
+        <v>1644.88654607892</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25214,7 +25713,7 @@
       </c>
       <c r="H12" s="3" t="n">
         <f aca="false">(B12 + B47) /(6.5 + 9)/5.28</f>
-        <v>1690.40607835617</v>
+        <v>1690.40607835616</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25259,7 +25758,7 @@
       </c>
       <c r="H15" s="3" t="n">
         <f aca="false">(B15 + B50) /(6.5 + 9)/5.28</f>
-        <v>1771.26660687048</v>
+        <v>1771.26660687047</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25274,7 +25773,7 @@
       </c>
       <c r="H16" s="3" t="n">
         <f aca="false">(B16 + B51) /(6.5 + 9)/5.28</f>
-        <v>1770.82428084015</v>
+        <v>1770.82428084014</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25307,7 +25806,7 @@
       </c>
       <c r="H18" s="3" t="n">
         <f aca="false">(B18 + B53) /(6.5 + 9)/5.28</f>
-        <v>1750.40573476655</v>
+        <v>1750.40573476654</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25337,7 +25836,7 @@
       </c>
       <c r="H20" s="3" t="n">
         <f aca="false">(B20 + B55) /(6.5 + 9)/5.28</f>
-        <v>1682.64352022811</v>
+        <v>1682.64352022812</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25352,7 +25851,7 @@
       </c>
       <c r="H21" s="3" t="n">
         <f aca="false">(B21 + B56) /(6.5 + 9)/5.28</f>
-        <v>1634.90261192224</v>
+        <v>1634.90261192225</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25457,7 +25956,7 @@
       </c>
       <c r="H28" s="3" t="n">
         <f aca="false">(B28 + B63) /(6.5 + 9)/5.28</f>
-        <v>942.512766696286</v>
+        <v>942.512766696287</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25472,7 +25971,7 @@
       </c>
       <c r="H29" s="3" t="n">
         <f aca="false">(B29 + B64) /(6.5 + 9)/5.28</f>
-        <v>864.340877059738</v>
+        <v>864.340877059739</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25502,7 +26001,7 @@
       </c>
       <c r="H31" s="3" t="n">
         <f aca="false">(B31 + B66) /(6.5 + 9)/5.28</f>
-        <v>719.291069832492</v>
+        <v>719.291069832491</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25517,7 +26016,7 @@
       </c>
       <c r="H32" s="3" t="n">
         <f aca="false">(B32 + B67) /(6.5 + 9)/5.28</f>
-        <v>667.126730243029</v>
+        <v>667.12673024303</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26710,13 +27209,13 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="17" min="11" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.57085020242915"/>
@@ -29958,7 +30457,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.7125506072875"/>
@@ -30117,7 +30616,7 @@
       </c>
       <c r="G12" s="2" t="n">
         <f aca="false">+B12/10.76/5.28</f>
-        <v>19598.7234713539</v>
+        <v>19598.7234713538</v>
       </c>
       <c r="H12" s="2" t="n">
         <f aca="false">+C12/10.76/5.28</f>
@@ -30155,11 +30654,11 @@
       </c>
       <c r="G14" s="2" t="n">
         <f aca="false">+B14/10.76/5.28</f>
-        <v>20377.5244777586</v>
+        <v>20377.5244777585</v>
       </c>
       <c r="H14" s="2" t="n">
         <f aca="false">+C14/10.76/5.28</f>
-        <v>9831.29951093862</v>
+        <v>9831.29951093863</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30174,7 +30673,7 @@
       </c>
       <c r="G15" s="2" t="n">
         <f aca="false">+B15/10.76/5.28</f>
-        <v>20419.1314615721</v>
+        <v>20419.131461572</v>
       </c>
       <c r="H15" s="2" t="n">
         <f aca="false">+C15/10.76/5.28</f>
@@ -30193,7 +30692,7 @@
       </c>
       <c r="G16" s="2" t="n">
         <f aca="false">+B16/10.76/5.28</f>
-        <v>20453.750689252</v>
+        <v>20453.7506892519</v>
       </c>
       <c r="H16" s="2" t="n">
         <f aca="false">+C16/10.76/5.28</f>
@@ -30212,7 +30711,7 @@
       </c>
       <c r="G17" s="2" t="n">
         <f aca="false">+B17/10.76/5.28</f>
-        <v>20566.0343901375</v>
+        <v>20566.0343901374</v>
       </c>
       <c r="H17" s="2" t="n">
         <f aca="false">+C17/10.76/5.28</f>
@@ -30231,7 +30730,7 @@
       </c>
       <c r="G18" s="2" t="n">
         <f aca="false">+B18/10.76/5.28</f>
-        <v>20737.2005671844</v>
+        <v>20737.2005671845</v>
       </c>
       <c r="H18" s="2" t="n">
         <f aca="false">+C18/10.76/5.28</f>
@@ -30250,7 +30749,7 @@
       </c>
       <c r="G19" s="2" t="n">
         <f aca="false">+B19/10.76/5.28</f>
-        <v>20921.8586800275</v>
+        <v>20921.8586800276</v>
       </c>
       <c r="H19" s="2" t="n">
         <f aca="false">+C19/10.76/5.28</f>
@@ -30307,7 +30806,7 @@
       </c>
       <c r="G22" s="2" t="n">
         <f aca="false">+B22/10.76/5.28</f>
-        <v>21516.0245513922</v>
+        <v>21516.0245513923</v>
       </c>
       <c r="H22" s="2" t="n">
         <f aca="false">+C22/10.76/5.28</f>
@@ -30383,7 +30882,7 @@
       </c>
       <c r="G26" s="2" t="n">
         <f aca="false">+B26/10.76/5.28</f>
-        <v>24163.3447399471</v>
+        <v>24163.3447399472</v>
       </c>
       <c r="H26" s="2" t="n">
         <f aca="false">+C26/10.76/5.28</f>
@@ -30406,7 +30905,7 @@
       </c>
       <c r="H27" s="2" t="n">
         <f aca="false">+C27/10.76/5.28</f>
-        <v>18198.08929121</v>
+        <v>18198.0892912101</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30421,11 +30920,11 @@
       </c>
       <c r="G28" s="2" t="n">
         <f aca="false">+B28/10.76/5.28</f>
-        <v>27257.4320524307</v>
+        <v>27257.4320524308</v>
       </c>
       <c r="H28" s="2" t="n">
         <f aca="false">+C28/10.76/5.28</f>
-        <v>19347.8231126622</v>
+        <v>19347.8231126621</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30444,7 +30943,7 @@
       </c>
       <c r="H29" s="2" t="n">
         <f aca="false">+C29/10.76/5.28</f>
-        <v>20291.2891491399</v>
+        <v>20291.28914914</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30459,11 +30958,11 @@
       </c>
       <c r="G30" s="2" t="n">
         <f aca="false">+B30/10.76/5.28</f>
-        <v>30667.6370439409</v>
+        <v>30667.6370439408</v>
       </c>
       <c r="H30" s="2" t="n">
         <f aca="false">+C30/10.76/5.28</f>
-        <v>20599.3574483783</v>
+        <v>20599.3574483784</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30478,7 +30977,7 @@
       </c>
       <c r="G31" s="2" t="n">
         <f aca="false">+B31/10.76/5.28</f>
-        <v>32447.1906200422</v>
+        <v>32447.1906200423</v>
       </c>
       <c r="H31" s="2" t="n">
         <f aca="false">+C31/10.76/5.28</f>
@@ -30497,7 +30996,7 @@
       </c>
       <c r="G32" s="2" t="n">
         <f aca="false">+B32/10.76/5.28</f>
-        <v>33975.5516230498</v>
+        <v>33975.5516230497</v>
       </c>
       <c r="H32" s="2" t="n">
         <f aca="false">+C32/10.76/5.28</f>
@@ -30535,7 +31034,7 @@
       </c>
       <c r="G34" s="2" t="n">
         <f aca="false">+B34/10.76/5.28</f>
-        <v>36665.8471770447</v>
+        <v>36665.8471770446</v>
       </c>
       <c r="H34" s="2" t="n">
         <f aca="false">+C34/10.76/5.28</f>
@@ -30554,7 +31053,7 @@
       </c>
       <c r="G35" s="2" t="n">
         <f aca="false">+B35/10.76/5.28</f>
-        <v>38112.6329486196</v>
+        <v>38112.6329486197</v>
       </c>
       <c r="H35" s="2" t="n">
         <f aca="false">+C35/10.76/5.28</f>
@@ -30573,11 +31072,11 @@
       </c>
       <c r="G36" s="2" t="n">
         <f aca="false">+B36/10.76/5.28</f>
-        <v>39213.1397812934</v>
+        <v>39213.1397812935</v>
       </c>
       <c r="H36" s="2" t="n">
         <f aca="false">+C36/10.76/5.28</f>
-        <v>21064.7711111066</v>
+        <v>21064.7711111067</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30592,7 +31091,7 @@
       </c>
       <c r="G37" s="2" t="n">
         <f aca="false">+B37/10.76/5.28</f>
-        <v>39120.6037634418</v>
+        <v>39120.6037634419</v>
       </c>
       <c r="H37" s="2" t="n">
         <f aca="false">+C37/10.76/5.28</f>
@@ -30611,11 +31110,11 @@
       </c>
       <c r="G38" s="2" t="n">
         <f aca="false">+B38/10.76/5.28</f>
-        <v>39311.4017401595</v>
+        <v>39311.4017401596</v>
       </c>
       <c r="H38" s="2" t="n">
         <f aca="false">+C38/10.76/5.28</f>
-        <v>22915.8927560017</v>
+        <v>22915.8927560016</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30634,7 +31133,7 @@
       </c>
       <c r="H39" s="2" t="n">
         <f aca="false">+C39/10.76/5.28</f>
-        <v>24552.4592060732</v>
+        <v>24552.4592060733</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30649,11 +31148,11 @@
       </c>
       <c r="G40" s="2" t="n">
         <f aca="false">+B40/10.76/5.28</f>
-        <v>47064.6412064418</v>
+        <v>47064.6412064419</v>
       </c>
       <c r="H40" s="2" t="n">
         <f aca="false">+C40/10.76/5.28</f>
-        <v>25981.2640041893</v>
+        <v>25981.2640041892</v>
       </c>
     </row>
   </sheetData>
@@ -30683,7 +31182,7 @@
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/data-raw/mark_gard_data/IFIMWUA.xlsx
+++ b/data-raw/mark_gard_data/IFIMWUA.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="179">
   <si>
     <t xml:space="preserve">Fall-run</t>
   </si>
@@ -450,6 +450,102 @@
 Spawning</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">O. mykiss
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Adult</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">O. mykiss
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Juvenile</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">O. mykiss
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Fry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">O. mykiss
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Spawning</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Englebright to Daguerre Segment</t>
   </si>
   <si>
@@ -586,7 +682,7 @@
     <numFmt numFmtId="172" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="173" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -660,6 +756,29 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cantarell"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -717,7 +836,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -767,7 +886,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -794,6 +913,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -810,7 +937,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1107,11 +1234,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="82368434"/>
-        <c:axId val="42784096"/>
+        <c:axId val="98480414"/>
+        <c:axId val="82228416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82368434"/>
+        <c:axId val="98480414"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,12 +1274,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42784096"/>
+        <c:crossAx val="82228416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42784096"/>
+        <c:axId val="82228416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1315,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82368434"/>
+        <c:crossAx val="98480414"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1690,7 +1817,7 @@
                   <c:v>7290578.83495372</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7548753.76532664</c:v>
+                  <c:v>7548753.76532665</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7783069.77555048</c:v>
@@ -1723,19 +1850,19 @@
                   <c:v>3938983.36397252</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3734155.96927578</c:v>
+                  <c:v>3734155.96927577</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3420656.98720402</c:v>
+                  <c:v>3420656.98720403</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3083333.67982399</c:v>
+                  <c:v>3083333.679824</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2966196.18387221</c:v>
+                  <c:v>2966196.1838722</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3013094.65572115</c:v>
+                  <c:v>3013094.65572116</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2959943.80050628</c:v>
@@ -1766,11 +1893,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="9996924"/>
-        <c:axId val="94083430"/>
+        <c:axId val="46946257"/>
+        <c:axId val="13681502"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="9996924"/>
+        <c:axId val="46946257"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,12 +1933,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94083430"/>
+        <c:crossAx val="13681502"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94083430"/>
+        <c:axId val="13681502"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,7 +1974,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9996924"/>
+        <c:crossAx val="46946257"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2227,11 +2354,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="94446257"/>
-        <c:axId val="2964910"/>
+        <c:axId val="73018201"/>
+        <c:axId val="82831159"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94446257"/>
+        <c:axId val="73018201"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2267,12 +2394,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2964910"/>
+        <c:crossAx val="82831159"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2964910"/>
+        <c:axId val="82831159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,7 +2435,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94446257"/>
+        <c:crossAx val="73018201"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2678,11 +2805,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="40044940"/>
-        <c:axId val="70727327"/>
+        <c:axId val="71314527"/>
+        <c:axId val="8282444"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40044940"/>
+        <c:axId val="71314527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,12 +2845,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70727327"/>
+        <c:crossAx val="8282444"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70727327"/>
+        <c:axId val="8282444"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2759,7 +2886,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40044940"/>
+        <c:crossAx val="71314527"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2797,9 +2924,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>323280</xdr:colOff>
+      <xdr:colOff>322920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2808,7 +2935,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2305080" y="252360"/>
-        <a:ext cx="5637960" cy="2742480"/>
+        <a:ext cx="5637600" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2832,9 +2959,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>523080</xdr:colOff>
+      <xdr:colOff>522720</xdr:colOff>
       <xdr:row>255</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2842,8 +2969,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6296040" y="45943920"/>
-        <a:ext cx="6085440" cy="2742840"/>
+        <a:off x="6315120" y="45943920"/>
+        <a:ext cx="6094800" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2867,9 +2994,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2877,8 +3004,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2685960" y="380880"/>
-        <a:ext cx="5637960" cy="2742480"/>
+        <a:off x="2695320" y="380880"/>
+        <a:ext cx="5637960" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2902,9 +3029,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2912,8 +3039,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2600280" y="190440"/>
-        <a:ext cx="5637960" cy="2742480"/>
+        <a:off x="2609640" y="190440"/>
+        <a:ext cx="5637960" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4221,7 +4348,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="8" min="6" style="0" width="6.42914979757085"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57085020242915"/>
   </cols>
@@ -7614,7 +7741,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
@@ -8296,15 +8423,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.57085020242915"/>
@@ -15692,7 +15819,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
@@ -17115,10 +17242,10 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -20477,7 +20604,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -20893,15 +21020,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20922,6 +21049,18 @@
       <c r="D2" s="18" t="s">
         <v>134</v>
       </c>
+      <c r="E2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -20936,6 +21075,18 @@
       <c r="D3" s="0" t="n">
         <v>2116.32</v>
       </c>
+      <c r="E3" s="20" t="n">
+        <v>15204.23</v>
+      </c>
+      <c r="F3" s="20" t="n">
+        <v>53029.98</v>
+      </c>
+      <c r="G3" s="20" t="n">
+        <v>54751.06</v>
+      </c>
+      <c r="H3" s="20" t="n">
+        <v>11648.21</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -20950,6 +21101,18 @@
       <c r="D4" s="0" t="n">
         <v>4950.27</v>
       </c>
+      <c r="E4" s="20" t="n">
+        <v>20427.83</v>
+      </c>
+      <c r="F4" s="20" t="n">
+        <v>55934.07</v>
+      </c>
+      <c r="G4" s="20" t="n">
+        <v>50438.41</v>
+      </c>
+      <c r="H4" s="20" t="n">
+        <v>17137.87</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -20964,6 +21127,18 @@
       <c r="D5" s="0" t="n">
         <v>7447.46</v>
       </c>
+      <c r="E5" s="20" t="n">
+        <v>24811.7</v>
+      </c>
+      <c r="F5" s="20" t="n">
+        <v>57493.7</v>
+      </c>
+      <c r="G5" s="20" t="n">
+        <v>46884.87</v>
+      </c>
+      <c r="H5" s="20" t="n">
+        <v>21449.1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -20978,6 +21153,18 @@
       <c r="D6" s="0" t="n">
         <v>10807.84</v>
       </c>
+      <c r="E6" s="20" t="n">
+        <v>28513.29</v>
+      </c>
+      <c r="F6" s="20" t="n">
+        <v>58459.15</v>
+      </c>
+      <c r="G6" s="20" t="n">
+        <v>44259.05</v>
+      </c>
+      <c r="H6" s="20" t="n">
+        <v>24938.94</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -20992,6 +21179,18 @@
       <c r="D7" s="0" t="n">
         <v>13071.88</v>
       </c>
+      <c r="E7" s="20" t="n">
+        <v>31455.03</v>
+      </c>
+      <c r="F7" s="20" t="n">
+        <v>58803.13</v>
+      </c>
+      <c r="G7" s="20" t="n">
+        <v>42362.45</v>
+      </c>
+      <c r="H7" s="20" t="n">
+        <v>27813.79</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -21006,6 +21205,18 @@
       <c r="D8" s="0" t="n">
         <v>15233</v>
       </c>
+      <c r="E8" s="20" t="n">
+        <v>33793.8</v>
+      </c>
+      <c r="F8" s="20" t="n">
+        <v>58594.14</v>
+      </c>
+      <c r="G8" s="20" t="n">
+        <v>40543.54</v>
+      </c>
+      <c r="H8" s="20" t="n">
+        <v>30187.09</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -21020,6 +21231,18 @@
       <c r="D9" s="0" t="n">
         <v>16715.36</v>
       </c>
+      <c r="E9" s="20" t="n">
+        <v>35650.73</v>
+      </c>
+      <c r="F9" s="20" t="n">
+        <v>57943.69</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>38948.5</v>
+      </c>
+      <c r="H9" s="20" t="n">
+        <v>32190.74</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -21034,6 +21257,18 @@
       <c r="D10" s="0" t="n">
         <v>17532.14</v>
       </c>
+      <c r="E10" s="20" t="n">
+        <v>37258.87</v>
+      </c>
+      <c r="F10" s="20" t="n">
+        <v>57339.7</v>
+      </c>
+      <c r="G10" s="20" t="n">
+        <v>37709.09</v>
+      </c>
+      <c r="H10" s="20" t="n">
+        <v>33876.89</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -21048,6 +21283,18 @@
       <c r="D11" s="0" t="n">
         <v>18116.91</v>
       </c>
+      <c r="E11" s="20" t="n">
+        <v>38640.99</v>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>56555.18</v>
+      </c>
+      <c r="G11" s="20" t="n">
+        <v>36641.38</v>
+      </c>
+      <c r="H11" s="20" t="n">
+        <v>35297.01</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -21062,6 +21309,18 @@
       <c r="D12" s="0" t="n">
         <v>18788.06</v>
       </c>
+      <c r="E12" s="20" t="n">
+        <v>39846.86</v>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>55752.38</v>
+      </c>
+      <c r="G12" s="20" t="n">
+        <v>35538.8</v>
+      </c>
+      <c r="H12" s="20" t="n">
+        <v>36497.83</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -21076,6 +21335,18 @@
       <c r="D13" s="0" t="n">
         <v>18816.55</v>
       </c>
+      <c r="E13" s="20" t="n">
+        <v>40802.07</v>
+      </c>
+      <c r="F13" s="20" t="n">
+        <v>54951.57</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <v>34610.77</v>
+      </c>
+      <c r="H13" s="20" t="n">
+        <v>37512.27</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -21090,6 +21361,18 @@
       <c r="D14" s="0" t="n">
         <v>18687.83</v>
       </c>
+      <c r="E14" s="20" t="n">
+        <v>41540.48</v>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>54073.44</v>
+      </c>
+      <c r="G14" s="20" t="n">
+        <v>33906.77</v>
+      </c>
+      <c r="H14" s="20" t="n">
+        <v>38341.84</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -21104,6 +21387,18 @@
       <c r="D15" s="0" t="n">
         <v>17938.96</v>
       </c>
+      <c r="E15" s="20" t="n">
+        <v>42124.86</v>
+      </c>
+      <c r="F15" s="20" t="n">
+        <v>53088.4</v>
+      </c>
+      <c r="G15" s="20" t="n">
+        <v>33297.9</v>
+      </c>
+      <c r="H15" s="20" t="n">
+        <v>39040.29</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -21118,6 +21413,18 @@
       <c r="D16" s="0" t="n">
         <v>17321.83</v>
       </c>
+      <c r="E16" s="20" t="n">
+        <v>42633.89</v>
+      </c>
+      <c r="F16" s="20" t="n">
+        <v>52086.89</v>
+      </c>
+      <c r="G16" s="20" t="n">
+        <v>32741.19</v>
+      </c>
+      <c r="H16" s="20" t="n">
+        <v>39594.69</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -21132,6 +21439,18 @@
       <c r="D17" s="0" t="n">
         <v>16838.83</v>
       </c>
+      <c r="E17" s="20" t="n">
+        <v>43037.06</v>
+      </c>
+      <c r="F17" s="20" t="n">
+        <v>51131.27</v>
+      </c>
+      <c r="G17" s="20" t="n">
+        <v>32311.32</v>
+      </c>
+      <c r="H17" s="20" t="n">
+        <v>40055.69</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -21146,6 +21465,18 @@
       <c r="D18" s="0" t="n">
         <v>15973.93</v>
       </c>
+      <c r="E18" s="20" t="n">
+        <v>43373.23</v>
+      </c>
+      <c r="F18" s="20" t="n">
+        <v>50231.29</v>
+      </c>
+      <c r="G18" s="20" t="n">
+        <v>31937.37</v>
+      </c>
+      <c r="H18" s="20" t="n">
+        <v>40433.29</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -21160,6 +21491,18 @@
       <c r="D19" s="0" t="n">
         <v>15593</v>
       </c>
+      <c r="E19" s="20" t="n">
+        <v>43646.17</v>
+      </c>
+      <c r="F19" s="20" t="n">
+        <v>49456.44</v>
+      </c>
+      <c r="G19" s="20" t="n">
+        <v>31654.45</v>
+      </c>
+      <c r="H19" s="20" t="n">
+        <v>40738.98</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -21174,6 +21517,18 @@
       <c r="D20" s="0" t="n">
         <v>15275.23</v>
       </c>
+      <c r="E20" s="20" t="n">
+        <v>43853.57</v>
+      </c>
+      <c r="F20" s="20" t="n">
+        <v>48619.69</v>
+      </c>
+      <c r="G20" s="20" t="n">
+        <v>31541.98</v>
+      </c>
+      <c r="H20" s="20" t="n">
+        <v>40987.72</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -21188,6 +21543,18 @@
       <c r="D21" s="0" t="n">
         <v>14734.6</v>
       </c>
+      <c r="E21" s="20" t="n">
+        <v>44011.77</v>
+      </c>
+      <c r="F21" s="20" t="n">
+        <v>47845.36</v>
+      </c>
+      <c r="G21" s="20" t="n">
+        <v>31241.46</v>
+      </c>
+      <c r="H21" s="20" t="n">
+        <v>41182.09</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -21202,6 +21569,18 @@
       <c r="D22" s="0" t="n">
         <v>13349.39</v>
       </c>
+      <c r="E22" s="20" t="n">
+        <v>44231.72</v>
+      </c>
+      <c r="F22" s="20" t="n">
+        <v>46549.31</v>
+      </c>
+      <c r="G22" s="20" t="n">
+        <v>30722.1</v>
+      </c>
+      <c r="H22" s="20" t="n">
+        <v>41418.38</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -21216,6 +21595,18 @@
       <c r="D23" s="0" t="n">
         <v>12212.15</v>
       </c>
+      <c r="E23" s="20" t="n">
+        <v>44337.16</v>
+      </c>
+      <c r="F23" s="20" t="n">
+        <v>45230.46</v>
+      </c>
+      <c r="G23" s="20" t="n">
+        <v>30584.38</v>
+      </c>
+      <c r="H23" s="20" t="n">
+        <v>41490.77</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -21230,6 +21621,18 @@
       <c r="D24" s="0" t="n">
         <v>11024.56</v>
       </c>
+      <c r="E24" s="20" t="n">
+        <v>44369.13</v>
+      </c>
+      <c r="F24" s="20" t="n">
+        <v>44239.98</v>
+      </c>
+      <c r="G24" s="20" t="n">
+        <v>30707.28</v>
+      </c>
+      <c r="H24" s="20" t="n">
+        <v>41385.58</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -21244,6 +21647,18 @@
       <c r="D25" s="0" t="n">
         <v>10010.47</v>
       </c>
+      <c r="E25" s="20" t="n">
+        <v>44319.93</v>
+      </c>
+      <c r="F25" s="20" t="n">
+        <v>43244.78</v>
+      </c>
+      <c r="G25" s="20" t="n">
+        <v>30704.63</v>
+      </c>
+      <c r="H25" s="20" t="n">
+        <v>41171.44</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -21258,6 +21673,18 @@
       <c r="D26" s="0" t="n">
         <v>8975.34</v>
       </c>
+      <c r="E26" s="20" t="n">
+        <v>44251.88</v>
+      </c>
+      <c r="F26" s="20" t="n">
+        <v>42255.11</v>
+      </c>
+      <c r="G26" s="20" t="n">
+        <v>31042.7</v>
+      </c>
+      <c r="H26" s="20" t="n">
+        <v>40869.42</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -21272,6 +21699,18 @@
       <c r="D27" s="0" t="n">
         <v>8327.79</v>
       </c>
+      <c r="E27" s="20" t="n">
+        <v>44203.56</v>
+      </c>
+      <c r="F27" s="20" t="n">
+        <v>41549.14</v>
+      </c>
+      <c r="G27" s="20" t="n">
+        <v>31517.53</v>
+      </c>
+      <c r="H27" s="20" t="n">
+        <v>40529.14</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -21286,6 +21725,18 @@
       <c r="D28" s="0" t="n">
         <v>7479.93</v>
       </c>
+      <c r="E28" s="20" t="n">
+        <v>44096.76</v>
+      </c>
+      <c r="F28" s="20" t="n">
+        <v>40986.94</v>
+      </c>
+      <c r="G28" s="20" t="n">
+        <v>31621.97</v>
+      </c>
+      <c r="H28" s="20" t="n">
+        <v>40166.12</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -21300,6 +21751,18 @@
       <c r="D29" s="0" t="n">
         <v>7015.36</v>
       </c>
+      <c r="E29" s="20" t="n">
+        <v>43969.54</v>
+      </c>
+      <c r="F29" s="20" t="n">
+        <v>40592.09</v>
+      </c>
+      <c r="G29" s="20" t="n">
+        <v>32174.18</v>
+      </c>
+      <c r="H29" s="20" t="n">
+        <v>39751.73</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -21314,6 +21777,18 @@
       <c r="D30" s="0" t="n">
         <v>5918.44</v>
       </c>
+      <c r="E30" s="20" t="n">
+        <v>43625.76</v>
+      </c>
+      <c r="F30" s="20" t="n">
+        <v>39968.53</v>
+      </c>
+      <c r="G30" s="20" t="n">
+        <v>33270.24</v>
+      </c>
+      <c r="H30" s="20" t="n">
+        <v>38919.78</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -21328,6 +21803,18 @@
       <c r="D31" s="0" t="n">
         <v>4988.08</v>
       </c>
+      <c r="E31" s="20" t="n">
+        <v>43227.02</v>
+      </c>
+      <c r="F31" s="20" t="n">
+        <v>39831.84</v>
+      </c>
+      <c r="G31" s="20" t="n">
+        <v>33632.42</v>
+      </c>
+      <c r="H31" s="20" t="n">
+        <v>38155.59</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -21341,6 +21828,18 @@
       </c>
       <c r="D32" s="0" t="n">
         <v>4455.03</v>
+      </c>
+      <c r="E32" s="20" t="n">
+        <v>42801.13</v>
+      </c>
+      <c r="F32" s="20" t="n">
+        <v>40035.8</v>
+      </c>
+      <c r="G32" s="20" t="n">
+        <v>34594.15</v>
+      </c>
+      <c r="H32" s="20" t="n">
+        <v>37502.13</v>
       </c>
     </row>
   </sheetData>
@@ -21368,7 +21867,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -21793,12 +22292,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.57085020242915"/>
@@ -21806,10 +22305,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>21</v>
@@ -21826,13 +22325,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>1</v>
@@ -22701,10 +23200,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -22719,13 +23218,13 @@
         <v>1</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>1</v>
@@ -23564,48 +24063,48 @@
         <v>9</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="L70" s="19" t="n">
+        <v>145</v>
+      </c>
+      <c r="L70" s="21" t="n">
         <v>41750</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="L71" s="19"/>
+        <v>147</v>
+      </c>
+      <c r="L71" s="21"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23616,7 +24115,7 @@
         <f aca="false">+C73+D73+1000000*(E73+F73)</f>
         <v>9172177</v>
       </c>
-      <c r="C73" s="20" t="n">
+      <c r="C73" s="22" t="n">
         <v>216584</v>
       </c>
       <c r="D73" s="8" t="n">
@@ -23629,11 +24128,11 @@
         <v>4.653</v>
       </c>
       <c r="G73" s="2"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
@@ -23643,7 +24142,7 @@
         <f aca="false">+C74+D74+1000000*(E74+F74)</f>
         <v>9497207</v>
       </c>
-      <c r="C74" s="20" t="n">
+      <c r="C74" s="22" t="n">
         <v>216584</v>
       </c>
       <c r="D74" s="8" t="n">
@@ -23656,11 +24155,11 @@
         <v>4.816</v>
       </c>
       <c r="G74" s="2"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
@@ -23670,7 +24169,7 @@
         <f aca="false">+C75+D75+1000000*(E75+F75)</f>
         <v>9727368</v>
       </c>
-      <c r="C75" s="20" t="n">
+      <c r="C75" s="22" t="n">
         <v>216584</v>
       </c>
       <c r="D75" s="8" t="n">
@@ -23683,11 +24182,11 @@
         <v>4.926</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
@@ -23697,7 +24196,7 @@
         <f aca="false">+C76+D76+1000000*(E76+F76)</f>
         <v>9891964</v>
       </c>
-      <c r="C76" s="20" t="n">
+      <c r="C76" s="22" t="n">
         <v>216584</v>
       </c>
       <c r="D76" s="8" t="n">
@@ -23710,11 +24209,11 @@
         <v>5.004</v>
       </c>
       <c r="G76" s="2"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
@@ -23724,7 +24223,7 @@
         <f aca="false">+C77+D77+1000000*(E77+F77)</f>
         <v>10047368</v>
       </c>
-      <c r="C77" s="20" t="n">
+      <c r="C77" s="22" t="n">
         <v>216584</v>
       </c>
       <c r="D77" s="8" t="n">
@@ -23737,11 +24236,11 @@
         <v>5.073</v>
       </c>
       <c r="G77" s="2"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
@@ -23751,7 +24250,7 @@
         <f aca="false">+C78+D78+1000000*(E78+F78)</f>
         <v>10109646</v>
       </c>
-      <c r="C78" s="20" t="n">
+      <c r="C78" s="22" t="n">
         <v>216584</v>
       </c>
       <c r="D78" s="8" t="n">
@@ -23764,11 +24263,11 @@
         <v>5.1</v>
       </c>
       <c r="G78" s="2"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
@@ -23778,7 +24277,7 @@
         <f aca="false">+C79+D79+1000000*(E79+F79)</f>
         <v>10114742</v>
       </c>
-      <c r="C79" s="20" t="n">
+      <c r="C79" s="22" t="n">
         <v>216584</v>
       </c>
       <c r="D79" s="8" t="n">
@@ -23791,11 +24290,11 @@
         <v>5.103</v>
       </c>
       <c r="G79" s="2"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
@@ -23818,11 +24317,11 @@
         <v>5.086</v>
       </c>
       <c r="G80" s="2"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
@@ -23845,11 +24344,11 @@
         <v>5.041</v>
       </c>
       <c r="G81" s="2"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
@@ -23872,11 +24371,11 @@
         <v>4.987</v>
       </c>
       <c r="G82" s="2"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
@@ -23899,11 +24398,11 @@
         <v>4.954</v>
       </c>
       <c r="G83" s="2"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
@@ -23926,11 +24425,11 @@
         <v>4.921</v>
       </c>
       <c r="G84" s="2"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
@@ -23953,11 +24452,11 @@
         <v>4.757</v>
       </c>
       <c r="G85" s="2"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
@@ -23980,11 +24479,11 @@
         <v>4.467</v>
       </c>
       <c r="G86" s="2"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
@@ -24007,11 +24506,11 @@
         <v>4.315</v>
       </c>
       <c r="G87" s="2"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
@@ -24034,11 +24533,11 @@
         <v>4.138</v>
       </c>
       <c r="G88" s="2"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="23"/>
+      <c r="M88" s="23"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
@@ -24061,11 +24560,11 @@
         <v>3.932</v>
       </c>
       <c r="G89" s="2"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="23"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
@@ -24088,11 +24587,11 @@
         <v>3.833</v>
       </c>
       <c r="G90" s="2"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="23"/>
+      <c r="M90" s="23"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
@@ -24115,11 +24614,11 @@
         <v>3.971</v>
       </c>
       <c r="G91" s="2"/>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
@@ -24142,11 +24641,11 @@
         <v>4.302</v>
       </c>
       <c r="G92" s="2"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="23"/>
+      <c r="M92" s="23"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
@@ -24169,11 +24668,11 @@
         <v>5.208</v>
       </c>
       <c r="G93" s="2"/>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="23"/>
+      <c r="M93" s="23"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
@@ -24196,11 +24695,11 @@
         <v>5.891</v>
       </c>
       <c r="G94" s="2"/>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="21"/>
-      <c r="L94" s="21"/>
-      <c r="M94" s="21"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="23"/>
+      <c r="M94" s="23"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
@@ -24223,11 +24722,11 @@
         <v>8.825</v>
       </c>
       <c r="G95" s="2"/>
-      <c r="I95" s="21"/>
-      <c r="J95" s="21"/>
-      <c r="K95" s="21"/>
-      <c r="L95" s="21"/>
-      <c r="M95" s="21"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="23"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
@@ -24250,11 +24749,11 @@
         <v>10.29</v>
       </c>
       <c r="G96" s="2"/>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21"/>
-      <c r="M96" s="21"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
+      <c r="M96" s="23"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
@@ -24277,11 +24776,11 @@
         <v>10.625</v>
       </c>
       <c r="G97" s="2"/>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21"/>
-      <c r="M97" s="21"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="23"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
@@ -24304,8 +24803,8 @@
         <v>10.589</v>
       </c>
       <c r="G98" s="2"/>
-      <c r="I98" s="21"/>
-      <c r="J98" s="21"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
@@ -24324,12 +24823,12 @@
       <c r="E99" s="0" t="n">
         <v>1.213</v>
       </c>
-      <c r="F99" s="22" t="n">
+      <c r="F99" s="24" t="n">
         <v>10.589</v>
       </c>
-      <c r="H99" s="21"/>
-      <c r="I99" s="21"/>
-      <c r="J99" s="21"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
@@ -24348,7 +24847,7 @@
       <c r="E100" s="0" t="n">
         <v>1.429</v>
       </c>
-      <c r="F100" s="22" t="n">
+      <c r="F100" s="24" t="n">
         <v>10.589</v>
       </c>
       <c r="G100" s="2"/>
@@ -24377,80 +24876,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="2" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="10" min="6" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="23" t="n">
+        <v>165</v>
+      </c>
+      <c r="B3" s="25" t="n">
         <v>221.1</v>
       </c>
-      <c r="C3" s="24" t="n">
+      <c r="C3" s="26" t="n">
         <f aca="false">+D3/B3</f>
         <v>0.0982775833106984</v>
       </c>
@@ -24489,12 +24988,12 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="23" t="n">
+        <v>166</v>
+      </c>
+      <c r="B4" s="25" t="n">
         <v>94</v>
       </c>
-      <c r="C4" s="24" t="n">
+      <c r="C4" s="26" t="n">
         <f aca="false">(0.208+0.241)/2</f>
         <v>0.2245</v>
       </c>
@@ -24531,12 +25030,12 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="23" t="n">
+        <v>167</v>
+      </c>
+      <c r="B5" s="25" t="n">
         <v>6174</v>
       </c>
-      <c r="C5" s="24" t="n">
+      <c r="C5" s="26" t="n">
         <v>0.072</v>
       </c>
       <c r="D5" s="8" t="n">
@@ -24557,12 +25056,12 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="23" t="n">
+        <v>168</v>
+      </c>
+      <c r="B6" s="25" t="n">
         <v>1062.3</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="26" t="n">
         <f aca="false">(0.2826+0.2012+0.3302)/3</f>
         <v>0.271333333333333</v>
       </c>
@@ -24575,12 +25074,12 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="23" t="n">
+        <v>169</v>
+      </c>
+      <c r="B7" s="25" t="n">
         <v>142</v>
       </c>
-      <c r="C7" s="24" t="n">
+      <c r="C7" s="26" t="n">
         <f aca="false">(1491+6752+4771+10276+1212+1499+7994+3405+5372+2395+6414+1733+16259+1011+16061+11836)/(32162+47855+28758+22492+35134+64850+75797)</f>
         <v>0.320734868815299</v>
       </c>
@@ -24593,12 +25092,12 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="23" t="n">
+        <v>170</v>
+      </c>
+      <c r="B8" s="25" t="n">
         <v>266.7115</v>
       </c>
-      <c r="C8" s="24" t="n">
+      <c r="C8" s="26" t="n">
         <v>0.236111111111111</v>
       </c>
       <c r="D8" s="8" t="n">
@@ -24610,12 +25109,12 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="23" t="n">
+        <v>171</v>
+      </c>
+      <c r="B9" s="25" t="n">
         <v>143.4</v>
       </c>
-      <c r="C9" s="24" t="n">
+      <c r="C9" s="26" t="n">
         <v>0.331</v>
       </c>
       <c r="D9" s="8" t="n">
@@ -24627,12 +25126,12 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="23" t="n">
+        <v>172</v>
+      </c>
+      <c r="B10" s="25" t="n">
         <v>95.8</v>
       </c>
-      <c r="C10" s="24" t="n">
+      <c r="C10" s="26" t="n">
         <v>0.101</v>
       </c>
       <c r="D10" s="8" t="n">
@@ -24644,12 +25143,12 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="23" t="n">
+        <v>173</v>
+      </c>
+      <c r="B11" s="25" t="n">
         <v>311</v>
       </c>
-      <c r="C11" s="24" t="n">
+      <c r="C11" s="26" t="n">
         <f aca="false">(0.225+0.31+0.36)/3</f>
         <v>0.298333333333333</v>
       </c>
@@ -24662,12 +25161,12 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="23" t="n">
+        <v>174</v>
+      </c>
+      <c r="B12" s="25" t="n">
         <v>4046</v>
       </c>
-      <c r="C12" s="24" t="n">
+      <c r="C12" s="26" t="n">
         <f aca="false">(1000+6473+4487+700+20799+24960+5949+195+36150)/(39075+86861)</f>
         <v>0.799715728624063</v>
       </c>
@@ -24680,12 +25179,12 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="23" t="n">
+        <v>175</v>
+      </c>
+      <c r="B13" s="25" t="n">
         <v>513</v>
       </c>
-      <c r="C13" s="24" t="n">
+      <c r="C13" s="26" t="n">
         <f aca="false">(0.3235*2+0.457+0.2255*2+0.409)/4</f>
         <v>0.491</v>
       </c>
@@ -24698,12 +25197,12 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="B14" s="23" t="n">
+        <v>176</v>
+      </c>
+      <c r="B14" s="25" t="n">
         <v>1066.03</v>
       </c>
-      <c r="C14" s="24" t="n">
+      <c r="C14" s="26" t="n">
         <v>0.026</v>
       </c>
       <c r="D14" s="8" t="n">
@@ -24715,12 +25214,12 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B15" s="23" t="n">
+        <v>177</v>
+      </c>
+      <c r="B15" s="25" t="n">
         <v>591</v>
       </c>
-      <c r="C15" s="24" t="n">
+      <c r="C15" s="26" t="n">
         <v>0.3025</v>
       </c>
       <c r="D15" s="8" t="n">
@@ -24736,7 +25235,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D17" s="8" t="n">
         <f aca="false">+H17/43560</f>
@@ -24794,7 +25293,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
@@ -25440,7 +25939,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0323886639676"/>
@@ -25540,8 +26039,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -27209,13 +27708,13 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="17" min="11" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.57085020242915"/>
@@ -30457,7 +30956,7 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="6" min="5" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.7125506072875"/>
@@ -31182,7 +31681,7 @@
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
